--- a/raw_data/20200818_saline/20200818_Sensor1_Test_57.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_57.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A4FCC-17E3-4DD9-A654-F25CE2641DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>50586.265272</v>
+        <v>50586.265271999997</v>
       </c>
       <c r="B2" s="1">
-        <v>14.051740</v>
+        <v>14.051740000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>900.430000</v>
+        <v>900.43</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.380000</v>
+        <v>-198.38</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>50596.329126</v>
+        <v>50596.329125999997</v>
       </c>
       <c r="G2" s="1">
-        <v>14.054536</v>
+        <v>14.054536000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.603000</v>
+        <v>917.60299999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.933000</v>
+        <v>-167.93299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>50606.586392</v>
+        <v>50606.586391999997</v>
       </c>
       <c r="L2" s="1">
         <v>14.057385</v>
       </c>
       <c r="M2" s="1">
-        <v>941.219000</v>
+        <v>941.21900000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.459000</v>
+        <v>-119.459</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>50616.710228</v>
+        <v>50616.710228000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.060197</v>
+        <v>14.060197000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>947.979000</v>
+        <v>947.97900000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.306000</v>
+        <v>-103.306</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>50626.946662</v>
+        <v>50626.946662000002</v>
       </c>
       <c r="V2" s="1">
         <v>14.063041</v>
       </c>
       <c r="W2" s="1">
-        <v>954.545000</v>
+        <v>954.54499999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.402800</v>
+        <v>-88.402799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>50636.768906</v>
+        <v>50636.768905999998</v>
       </c>
       <c r="AA2" s="1">
         <v>14.065769</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.639000</v>
+        <v>961.63900000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.930700</v>
+        <v>-76.930700000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>50647.031132</v>
+        <v>50647.031131999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.068620</v>
+        <v>14.068619999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.491000</v>
+        <v>966.49099999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.748900</v>
+        <v>-74.748900000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>50657.767535</v>
+        <v>50657.767534999999</v>
       </c>
       <c r="AK2" s="1">
         <v>14.071602</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.573000</v>
+        <v>973.57299999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.644400</v>
+        <v>-79.644400000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>50668.382416</v>
@@ -601,393 +1017,393 @@
         <v>14.074551</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.629000</v>
+        <v>981.62900000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.397400</v>
+        <v>-91.397400000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>50679.388146</v>
+        <v>50679.388145999998</v>
       </c>
       <c r="AU2" s="1">
         <v>14.077608</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.555000</v>
+        <v>991.55499999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.218000</v>
+        <v>-109.218</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>50690.551639</v>
+        <v>50690.551638999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.080709</v>
+        <v>14.080709000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.864000</v>
+        <v>999.86400000000003</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.954000</v>
+        <v>-124.95399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>50701.576180</v>
+        <v>50701.576179999996</v>
       </c>
       <c r="BE2" s="1">
         <v>14.083771</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.197000</v>
+        <v>-197.197</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>50712.585382</v>
+        <v>50712.585381999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.086829</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.148000</v>
+        <v>-314.14800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>50724.327712</v>
+        <v>50724.327711999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.090091</v>
+        <v>14.090090999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-498.163000</v>
+        <v>-498.16300000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>50734.671271</v>
+        <v>50734.671270999999</v>
       </c>
       <c r="BT2" s="1">
         <v>14.092964</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.780000</v>
+        <v>1336.78</v>
       </c>
       <c r="BV2" s="1">
-        <v>-700.444000</v>
+        <v>-700.44399999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>50745.429503</v>
+        <v>50745.429502999999</v>
       </c>
       <c r="BY2" s="1">
         <v>14.095953</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.300000</v>
+        <v>1473.3</v>
       </c>
       <c r="CA2" s="1">
-        <v>-915.115000</v>
+        <v>-915.11500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>50756.386131</v>
+        <v>50756.386130999999</v>
       </c>
       <c r="CD2" s="1">
         <v>14.098996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.240000</v>
+        <v>1831.24</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1426.050000</v>
+        <v>-1426.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>50586.373884</v>
+        <v>50586.373884000001</v>
       </c>
       <c r="B3" s="1">
         <v>14.051771</v>
       </c>
       <c r="C3" s="1">
-        <v>900.506000</v>
+        <v>900.50599999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.261000</v>
+        <v>-198.261</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50596.750685</v>
+        <v>50596.750684999999</v>
       </c>
       <c r="G3" s="1">
         <v>14.054653</v>
       </c>
       <c r="H3" s="1">
-        <v>918.285000</v>
+        <v>918.28499999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.166000</v>
+        <v>-168.166</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>50606.934593</v>
+        <v>50606.934592999998</v>
       </c>
       <c r="L3" s="1">
         <v>14.057482</v>
       </c>
       <c r="M3" s="1">
-        <v>941.183000</v>
+        <v>941.18299999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.409000</v>
+        <v>-119.40900000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>50617.092150</v>
+        <v>50617.092149999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.060303</v>
+        <v>14.060302999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>947.987000</v>
+        <v>947.98699999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.315000</v>
+        <v>-103.315</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>50627.330069</v>
+        <v>50627.330069000003</v>
       </c>
       <c r="V3" s="1">
-        <v>14.063147</v>
+        <v>14.063147000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.485000</v>
+        <v>954.48500000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.379600</v>
+        <v>-88.379599999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>50637.176618</v>
+        <v>50637.176617999998</v>
       </c>
       <c r="AA3" s="1">
         <v>14.065882</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.722000</v>
+        <v>961.72199999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.874900</v>
+        <v>-76.874899999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>50647.750865</v>
+        <v>50647.750865000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.068820</v>
+        <v>14.068820000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.477000</v>
+        <v>966.47699999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.791100</v>
+        <v>-74.7911</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>50658.181196</v>
+        <v>50658.181195999998</v>
       </c>
       <c r="AK3" s="1">
         <v>14.071717</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.545000</v>
+        <v>973.54499999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.682400</v>
+        <v>-79.682400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>50668.755903</v>
+        <v>50668.755902999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.074654</v>
+        <v>14.074654000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.633000</v>
+        <v>981.63300000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.398800</v>
+        <v>-91.398799999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>50679.756710</v>
+        <v>50679.756710000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.077710</v>
+        <v>14.07771</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.538000</v>
+        <v>991.53800000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.222000</v>
+        <v>-109.22199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>50690.954849</v>
+        <v>50690.954849000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.080821</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.836000</v>
+        <v>999.83600000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.957000</v>
+        <v>-124.95699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>50702.326131</v>
+        <v>50702.326131000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.083979</v>
+        <v>14.083978999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.208000</v>
+        <v>-197.208</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>50713.349219</v>
+        <v>50713.349219000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.087041</v>
+        <v>14.087040999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.122000</v>
+        <v>-314.12200000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>50724.731909</v>
+        <v>50724.731909000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.090203</v>
+        <v>14.090203000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-498.167000</v>
+        <v>-498.16699999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>50735.116647</v>
+        <v>50735.116647000003</v>
       </c>
       <c r="BT3" s="1">
         <v>14.093088</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV3" s="1">
-        <v>-700.330000</v>
+        <v>-700.33</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>50745.895714</v>
+        <v>50745.895713999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.096082</v>
+        <v>14.096081999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA3" s="1">
-        <v>-915.169000</v>
+        <v>-915.16899999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>50757.267978</v>
+        <v>50757.267978000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.099241</v>
+        <v>14.099240999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.160000</v>
+        <v>1830.16</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1426.020000</v>
+        <v>-1426.02</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>50586.719631</v>
       </c>
@@ -995,527 +1411,527 @@
         <v>14.051867</v>
       </c>
       <c r="C4" s="1">
-        <v>900.629000</v>
+        <v>900.62900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.415000</v>
+        <v>-198.41499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>50597.100894</v>
+        <v>50597.100894000003</v>
       </c>
       <c r="G4" s="1">
-        <v>14.054750</v>
+        <v>14.05475</v>
       </c>
       <c r="H4" s="1">
-        <v>918.268000</v>
+        <v>918.26800000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.304000</v>
+        <v>-168.304</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>50607.280754</v>
+        <v>50607.280753999999</v>
       </c>
       <c r="L4" s="1">
-        <v>14.057578</v>
+        <v>14.057577999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.111000</v>
+        <v>941.11099999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.284000</v>
+        <v>-119.28400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>50617.517683</v>
+        <v>50617.517682999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.060422</v>
+        <v>14.060422000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>947.981000</v>
+        <v>947.98099999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>50627.754117</v>
+        <v>50627.754116999997</v>
       </c>
       <c r="V4" s="1">
-        <v>14.063265</v>
+        <v>14.063264999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.575000</v>
+        <v>954.57500000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.341600</v>
+        <v>-88.3416</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>50637.507448</v>
+        <v>50637.507447999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.065974</v>
+        <v>14.065974000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.700000</v>
+        <v>961.7</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.823300</v>
+        <v>-76.823300000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>50648.094058</v>
+        <v>50648.094058000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.068915</v>
+        <v>14.068915000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.293000</v>
+        <v>966.29300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.744000</v>
+        <v>-74.744</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>50658.539347</v>
+        <v>50658.539346999998</v>
       </c>
       <c r="AK4" s="1">
         <v>14.071816</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.531000</v>
+        <v>973.53099999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.651700</v>
+        <v>-79.651700000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>50669.116663</v>
+        <v>50669.116663000001</v>
       </c>
       <c r="AP4" s="1">
         <v>14.074755</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.628000</v>
+        <v>981.62800000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.408300</v>
+        <v>-91.408299999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>50680.116309</v>
+        <v>50680.116308999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.077810</v>
+        <v>14.077809999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.567000</v>
+        <v>991.56700000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.244000</v>
+        <v>-109.244</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>50691.675042</v>
+        <v>50691.675042000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.081021</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.830000</v>
+        <v>999.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.964000</v>
+        <v>-124.964</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>50702.687251</v>
+        <v>50702.687251000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.084080</v>
+        <v>14.08408</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.780000</v>
+        <v>1038.78</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.213000</v>
+        <v>-197.21299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>50713.751973</v>
+        <v>50713.751972999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.087153</v>
+        <v>14.087153000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.111000</v>
+        <v>-314.11099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>50725.155033</v>
+        <v>50725.155033000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.090321</v>
+        <v>14.090320999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-498.146000</v>
+        <v>-498.14600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>50735.832376</v>
+        <v>50735.832375999998</v>
       </c>
       <c r="BT4" s="1">
         <v>14.093287</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.950000</v>
+        <v>1336.95</v>
       </c>
       <c r="BV4" s="1">
-        <v>-700.189000</v>
+        <v>-700.18899999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>50746.616392</v>
+        <v>50746.616392000004</v>
       </c>
       <c r="BY4" s="1">
         <v>14.096282</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.170000</v>
+        <v>1473.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-915.058000</v>
+        <v>-915.05799999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>50757.497131</v>
+        <v>50757.497130999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.099305</v>
+        <v>14.099304999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.510000</v>
+        <v>1831.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1426.340000</v>
+        <v>-1426.34</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>50587.059355</v>
+        <v>50587.059354999998</v>
       </c>
       <c r="B5" s="1">
         <v>14.051961</v>
       </c>
       <c r="C5" s="1">
-        <v>900.588000</v>
+        <v>900.58799999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.328000</v>
+        <v>-198.328</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>50597.516509</v>
+        <v>50597.516509000001</v>
       </c>
       <c r="G5" s="1">
-        <v>14.054866</v>
+        <v>14.054866000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.058000</v>
+        <v>918.05799999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.142000</v>
+        <v>-168.142</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>50607.694913</v>
+        <v>50607.694912999999</v>
       </c>
       <c r="L5" s="1">
         <v>14.057693</v>
       </c>
       <c r="M5" s="1">
-        <v>941.137000</v>
+        <v>941.13699999999994</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.449000</v>
+        <v>-119.449</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>50617.812307</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.060503</v>
+        <v>14.060503000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.969000</v>
+        <v>947.96900000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>50628.045796</v>
+        <v>50628.045795999999</v>
       </c>
       <c r="V5" s="1">
-        <v>14.063346</v>
+        <v>14.063345999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.570000</v>
+        <v>954.57</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.467000</v>
+        <v>-88.466999999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>50637.853159</v>
+        <v>50637.853158999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.066070</v>
+        <v>14.06607</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.669000</v>
+        <v>961.66899999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.900600</v>
+        <v>-76.900599999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>50648.433854</v>
+        <v>50648.433854000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.069009</v>
+        <v>14.069008999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.378000</v>
+        <v>966.37800000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.827000</v>
+        <v>-74.826999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>50658.887045</v>
+        <v>50658.887045000003</v>
       </c>
       <c r="AK5" s="1">
         <v>14.071913</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.529000</v>
+        <v>973.529</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.628600</v>
+        <v>-79.628600000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>50669.836190</v>
+        <v>50669.836190000002</v>
       </c>
       <c r="AP5" s="1">
         <v>14.074954</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.633000</v>
+        <v>981.63300000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.387600</v>
+        <v>-91.387600000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>50680.845423</v>
+        <v>50680.845422999999</v>
       </c>
       <c r="AU5" s="1">
         <v>14.078013</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.532000</v>
+        <v>991.53200000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>50692.030212</v>
+        <v>50692.030211999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.081120</v>
+        <v>14.08112</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.846000</v>
+        <v>999.846</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.972000</v>
+        <v>-124.97199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>50703.049825</v>
+        <v>50703.049825000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.084181</v>
+        <v>14.084180999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.187000</v>
+        <v>-197.18700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>50714.125955</v>
+        <v>50714.125955000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.087257</v>
+        <v>14.087256999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.123000</v>
+        <v>-314.12299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>50725.866261</v>
+        <v>50725.866261000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.090518</v>
+        <v>14.090517999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-498.158000</v>
+        <v>-498.15800000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>50735.960849</v>
+        <v>50735.960849000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.093322</v>
+        <v>14.093322000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.060000</v>
+        <v>1337.06</v>
       </c>
       <c r="BV5" s="1">
-        <v>-700.085000</v>
+        <v>-700.08500000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>50746.756760</v>
+        <v>50746.756759999997</v>
       </c>
       <c r="BY5" s="1">
         <v>14.096321</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.200000</v>
+        <v>1473.2</v>
       </c>
       <c r="CA5" s="1">
-        <v>-915.180000</v>
+        <v>-915.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>50758.015982</v>
+        <v>50758.015981999997</v>
       </c>
       <c r="CD5" s="1">
         <v>14.099449</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.840000</v>
+        <v>1830.84</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1426.540000</v>
+        <v>-1426.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>50587.487898</v>
+        <v>50587.487897999999</v>
       </c>
       <c r="B6" s="1">
-        <v>14.052080</v>
+        <v>14.05208</v>
       </c>
       <c r="C6" s="1">
-        <v>900.553000</v>
+        <v>900.553</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.290000</v>
+        <v>-198.29</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>50597.795758</v>
@@ -1524,73 +1940,73 @@
         <v>14.054943</v>
       </c>
       <c r="H6" s="1">
-        <v>918.010000</v>
+        <v>918.01</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.548000</v>
+        <v>-167.548</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>50607.971185</v>
+        <v>50607.971185000002</v>
       </c>
       <c r="L6" s="1">
-        <v>14.057770</v>
+        <v>14.05777</v>
       </c>
       <c r="M6" s="1">
-        <v>941.197000</v>
+        <v>941.197</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.510000</v>
+        <v>-119.51</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>50618.163010</v>
+        <v>50618.163009999997</v>
       </c>
       <c r="Q6" s="1">
         <v>14.060601</v>
       </c>
       <c r="R6" s="1">
-        <v>947.923000</v>
+        <v>947.923</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>50628.392468</v>
+        <v>50628.392467999998</v>
       </c>
       <c r="V6" s="1">
         <v>14.063442</v>
       </c>
       <c r="W6" s="1">
-        <v>954.432000</v>
+        <v>954.43200000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.332200</v>
+        <v>-88.3322</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>50638.204328</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.066168</v>
+        <v>14.066167999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.635000</v>
+        <v>961.63499999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.878100</v>
+        <v>-76.878100000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>50649.123754</v>
@@ -1599,133 +2015,133 @@
         <v>14.069201</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.320000</v>
+        <v>966.32</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.779500</v>
+        <v>-74.779499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>50659.586370</v>
+        <v>50659.586369999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.072107</v>
+        <v>14.072107000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.557000</v>
+        <v>973.55700000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.637000</v>
+        <v>-79.637</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>50670.227533</v>
+        <v>50670.227532999997</v>
       </c>
       <c r="AP6" s="1">
         <v>14.075063</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.659000</v>
+        <v>981.65899999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.361600</v>
+        <v>-91.361599999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>50681.248178</v>
+        <v>50681.248178000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.078124</v>
+        <v>14.078124000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.544000</v>
+        <v>991.54399999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.218000</v>
+        <v>-109.218</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>50692.390273</v>
+        <v>50692.390272999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.081220</v>
+        <v>14.08122</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.853000</v>
+        <v>999.85299999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.965000</v>
+        <v>-124.965</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>50703.721872</v>
+        <v>50703.721872000002</v>
       </c>
       <c r="BE6" s="1">
         <v>14.084367</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.810000</v>
+        <v>1038.81</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.211000</v>
+        <v>-197.21100000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>50714.949841</v>
+        <v>50714.949841000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.087486</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.137000</v>
+        <v>-314.137</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>50725.990292</v>
+        <v>50725.990292000002</v>
       </c>
       <c r="BO6" s="1">
         <v>14.090553</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-498.183000</v>
+        <v>-498.18299999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>50736.397820</v>
+        <v>50736.397819999998</v>
       </c>
       <c r="BT6" s="1">
         <v>14.093444</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.020000</v>
+        <v>1337.02</v>
       </c>
       <c r="BV6" s="1">
-        <v>-700.030000</v>
+        <v>-700.03</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>50747.179849</v>
@@ -1734,255 +2150,255 @@
         <v>14.096439</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.320000</v>
+        <v>1473.32</v>
       </c>
       <c r="CA6" s="1">
-        <v>-915.227000</v>
+        <v>-915.22699999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>50758.569020</v>
+        <v>50758.569020000003</v>
       </c>
       <c r="CD6" s="1">
         <v>14.099603</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.140000</v>
+        <v>1830.14</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1425.880000</v>
+        <v>-1425.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>50587.743840</v>
+        <v>50587.743840000003</v>
       </c>
       <c r="B7" s="1">
         <v>14.052151</v>
       </c>
       <c r="C7" s="1">
-        <v>900.486000</v>
+        <v>900.48599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.399000</v>
+        <v>-198.399</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>50598.139484</v>
+        <v>50598.139483999999</v>
       </c>
       <c r="G7" s="1">
-        <v>14.055039</v>
+        <v>14.055039000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>918.241000</v>
+        <v>918.24099999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.022000</v>
+        <v>-168.02199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>50608.319870</v>
+        <v>50608.319869999999</v>
       </c>
       <c r="L7" s="1">
         <v>14.057867</v>
       </c>
       <c r="M7" s="1">
-        <v>941.309000</v>
+        <v>941.30899999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.454000</v>
+        <v>-119.45399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>50618.508193</v>
+        <v>50618.508193000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.060697</v>
+        <v>14.060696999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>947.963000</v>
+        <v>947.96299999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>50628.734709</v>
+        <v>50628.734708999997</v>
       </c>
       <c r="V7" s="1">
         <v>14.063537</v>
       </c>
       <c r="W7" s="1">
-        <v>954.576000</v>
+        <v>954.57600000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.302500</v>
+        <v>-88.302499999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>50638.899720</v>
+        <v>50638.899720000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.066361</v>
+        <v>14.066361000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.588000</v>
+        <v>961.58799999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.833000</v>
+        <v>-76.832999999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>50649.465497</v>
+        <v>50649.465496999997</v>
       </c>
       <c r="AF7" s="1">
         <v>14.069296</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.378000</v>
+        <v>966.37800000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.982600</v>
+        <v>-74.982600000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>50659.934556</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.072204</v>
+        <v>14.072203999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.532000</v>
+        <v>973.53200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.664500</v>
+        <v>-79.664500000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>50670.603500</v>
+        <v>50670.603499999997</v>
       </c>
       <c r="AP7" s="1">
         <v>14.075168</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.637000</v>
+        <v>981.63699999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.366500</v>
+        <v>-91.366500000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>50681.907821</v>
+        <v>50681.907821000001</v>
       </c>
       <c r="AU7" s="1">
         <v>14.078308</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.540000</v>
+        <v>991.54</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>50693.062350</v>
+        <v>50693.06235</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.081406</v>
+        <v>14.081405999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.845000</v>
+        <v>999.84500000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.961000</v>
+        <v>-124.961</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>50704.155910</v>
+        <v>50704.155910000001</v>
       </c>
       <c r="BE7" s="1">
         <v>14.084488</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.800000</v>
+        <v>1038.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.198000</v>
+        <v>-197.19800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>50715.279238</v>
+        <v>50715.279238000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.087578</v>
+        <v>14.087578000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.132000</v>
+        <v>-314.13200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>50726.397476</v>
+        <v>50726.397475999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.090666</v>
+        <v>14.090666000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-498.187000</v>
+        <v>-498.18700000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>50736.826357</v>
+        <v>50736.826356999998</v>
       </c>
       <c r="BT7" s="1">
         <v>14.093563</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.940000</v>
+        <v>1336.94</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.900000</v>
+        <v>-699.9</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>50747.607399</v>
@@ -1991,75 +2407,75 @@
         <v>14.096558</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.180000</v>
+        <v>1473.18</v>
       </c>
       <c r="CA7" s="1">
-        <v>-915.156000</v>
+        <v>-915.15599999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>50759.096759</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.099749</v>
+        <v>14.099748999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.440000</v>
+        <v>1831.44</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1426.630000</v>
+        <v>-1426.63</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>50588.081610</v>
+        <v>50588.081610000001</v>
       </c>
       <c r="B8" s="1">
-        <v>14.052245</v>
+        <v>14.052244999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>900.479000</v>
+        <v>900.47900000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.206000</v>
+        <v>-198.20599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>50598.484237</v>
+        <v>50598.484236999997</v>
       </c>
       <c r="G8" s="1">
         <v>14.055135</v>
       </c>
       <c r="H8" s="1">
-        <v>917.710000</v>
+        <v>917.71</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.038000</v>
+        <v>-168.03800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>50608.663630</v>
+        <v>50608.663630000003</v>
       </c>
       <c r="L8" s="1">
         <v>14.057962</v>
       </c>
       <c r="M8" s="1">
-        <v>941.195000</v>
+        <v>941.19500000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.432000</v>
+        <v>-119.432</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>50619.207058</v>
@@ -2068,647 +2484,647 @@
         <v>14.060891</v>
       </c>
       <c r="R8" s="1">
-        <v>947.992000</v>
+        <v>947.99199999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.304000</v>
+        <v>-103.304</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>50629.425138</v>
+        <v>50629.425137999999</v>
       </c>
       <c r="V8" s="1">
         <v>14.063729</v>
       </c>
       <c r="W8" s="1">
-        <v>954.480000</v>
+        <v>954.48</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.388400</v>
+        <v>-88.388400000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>50639.250391</v>
+        <v>50639.250391000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.066458</v>
+        <v>14.066458000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.663000</v>
+        <v>961.66300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.903600</v>
+        <v>-76.903599999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>50649.806780</v>
+        <v>50649.806779999999</v>
       </c>
       <c r="AF8" s="1">
         <v>14.069391</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.291000</v>
+        <v>966.29100000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.811100</v>
+        <v>-74.811099999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>50660.281792</v>
+        <v>50660.281792000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.072300</v>
+        <v>14.0723</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.545000</v>
+        <v>973.54499999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.662100</v>
+        <v>-79.662099999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>50671.280540</v>
+        <v>50671.28054</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.075356</v>
+        <v>14.075355999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.610000</v>
+        <v>981.61</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.389700</v>
+        <v>-91.389700000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>50682.367117</v>
+        <v>50682.367117000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.078435</v>
+        <v>14.078435000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.540000</v>
+        <v>991.54</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>50693.488429</v>
+        <v>50693.488428999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.081525</v>
+        <v>14.081524999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.849000</v>
+        <v>999.84900000000005</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.970000</v>
+        <v>-124.97</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>50704.522417</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.084590</v>
+        <v>14.08459</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.196000</v>
+        <v>-197.196</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>50715.653136</v>
+        <v>50715.653136000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.087681</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.128000</v>
+        <v>-314.12799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>50726.797283</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.090777</v>
+        <v>14.090776999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-498.165000</v>
+        <v>-498.16500000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>50737.243757</v>
+        <v>50737.243756999997</v>
       </c>
       <c r="BT8" s="1">
         <v>14.093679</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.850000</v>
+        <v>-699.85</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>50748.024038</v>
+        <v>50748.024038000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.096673</v>
+        <v>14.096672999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.160000</v>
+        <v>1473.16</v>
       </c>
       <c r="CA8" s="1">
-        <v>-915.201000</v>
+        <v>-915.20100000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>50759.616535</v>
+        <v>50759.616535000001</v>
       </c>
       <c r="CD8" s="1">
         <v>14.099893</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.720000</v>
+        <v>1830.72</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1425.010000</v>
+        <v>-1425.01</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>50588.414921</v>
+        <v>50588.414921000003</v>
       </c>
       <c r="B9" s="1">
         <v>14.052337</v>
       </c>
       <c r="C9" s="1">
-        <v>900.482000</v>
+        <v>900.48199999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.273000</v>
+        <v>-198.273</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>50599.164220</v>
+        <v>50599.164219999999</v>
       </c>
       <c r="G9" s="1">
         <v>14.055323</v>
       </c>
       <c r="H9" s="1">
-        <v>918.247000</v>
+        <v>918.24699999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.034000</v>
+        <v>-168.03399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>50609.351587</v>
+        <v>50609.351586999997</v>
       </c>
       <c r="L9" s="1">
-        <v>14.058153</v>
+        <v>14.058153000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.067000</v>
+        <v>941.06700000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.460000</v>
+        <v>-119.46</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>50619.554137</v>
+        <v>50619.554136999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.060987</v>
+        <v>14.060987000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>947.988000</v>
+        <v>947.98800000000006</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.363000</v>
+        <v>-103.363</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>50629.766883</v>
+        <v>50629.766882999997</v>
       </c>
       <c r="V9" s="1">
         <v>14.063824</v>
       </c>
       <c r="W9" s="1">
-        <v>954.598000</v>
+        <v>954.59799999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.450800</v>
+        <v>-88.450800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>50639.598582</v>
+        <v>50639.598581999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.066555</v>
+        <v>14.066554999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.644000</v>
+        <v>961.64400000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.866000</v>
+        <v>-76.866</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>50650.458524</v>
+        <v>50650.458524000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.069572</v>
+        <v>14.069572000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.332000</v>
+        <v>966.33199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.794700</v>
+        <v>-74.794700000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>50660.934985</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.072482</v>
+        <v>14.072482000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.534000</v>
+        <v>973.53399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.667500</v>
+        <v>-79.667500000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>50671.686303</v>
+        <v>50671.686303000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.075468</v>
+        <v>14.075468000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.616000</v>
+        <v>981.61599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.407300</v>
+        <v>-91.407300000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>50682.734188</v>
+        <v>50682.734188000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.078537</v>
+        <v>14.078537000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.563000</v>
+        <v>991.56299999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.207000</v>
+        <v>-109.20699999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>50693.864385</v>
+        <v>50693.864385000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.081629</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.863000</v>
+        <v>999.86300000000006</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.952000</v>
+        <v>-124.952</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>50704.879039</v>
+        <v>50704.879038999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.084689</v>
+        <v>14.084688999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.800000</v>
+        <v>1038.8</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.185000</v>
+        <v>-197.185</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>50716.078208</v>
+        <v>50716.078207999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.087800</v>
+        <v>14.0878</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.129000</v>
+        <v>-314.12900000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>50727.215411</v>
+        <v>50727.215410999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.090893</v>
+        <v>14.090892999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-498.189000</v>
+        <v>-498.18900000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>50737.671045</v>
+        <v>50737.671045000003</v>
       </c>
       <c r="BT9" s="1">
         <v>14.093798</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.640000</v>
+        <v>1336.64</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.735000</v>
+        <v>-699.73500000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>50748.505685</v>
+        <v>50748.505684999996</v>
       </c>
       <c r="BY9" s="1">
         <v>14.096807</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.240000</v>
+        <v>1473.24</v>
       </c>
       <c r="CA9" s="1">
-        <v>-915.236000</v>
+        <v>-915.23599999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>50760.154726</v>
+        <v>50760.154726000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.100043</v>
+        <v>14.100042999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.680000</v>
+        <v>1830.68</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1426.530000</v>
+        <v>-1426.53</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>50589.108825</v>
+        <v>50589.108825000003</v>
       </c>
       <c r="B10" s="1">
-        <v>14.052530</v>
+        <v>14.052530000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>900.561000</v>
+        <v>900.56100000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.203000</v>
+        <v>-198.203</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>50599.519356</v>
+        <v>50599.519355999997</v>
       </c>
       <c r="G10" s="1">
         <v>14.055422</v>
       </c>
       <c r="H10" s="1">
-        <v>918.295000</v>
+        <v>918.29499999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.981000</v>
+        <v>-167.98099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>50609.700270</v>
+        <v>50609.700270000001</v>
       </c>
       <c r="L10" s="1">
-        <v>14.058250</v>
+        <v>14.058249999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>941.190000</v>
+        <v>941.19</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.503000</v>
+        <v>-119.503</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>50619.906415</v>
+        <v>50619.906414999998</v>
       </c>
       <c r="Q10" s="1">
         <v>14.061085</v>
       </c>
       <c r="R10" s="1">
-        <v>947.968000</v>
+        <v>947.96799999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.334000</v>
+        <v>-103.334</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>50630.131479</v>
+        <v>50630.131479000003</v>
       </c>
       <c r="V10" s="1">
-        <v>14.063925</v>
+        <v>14.063924999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.467000</v>
+        <v>954.46699999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.414200</v>
+        <v>-88.414199999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>50640.252566</v>
+        <v>50640.252566000003</v>
       </c>
       <c r="AA10" s="1">
         <v>14.066737</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.672000</v>
+        <v>961.67200000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.833300</v>
+        <v>-76.833299999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>50650.837471</v>
+        <v>50650.837470999999</v>
       </c>
       <c r="AF10" s="1">
         <v>14.069677</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.325000</v>
+        <v>966.32500000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.791500</v>
+        <v>-74.791499999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>50661.327321</v>
+        <v>50661.327320999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.072591</v>
+        <v>14.072590999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.540000</v>
+        <v>973.54</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.641700</v>
+        <v>-79.6417</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>50672.071164</v>
+        <v>50672.071164000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.075575</v>
+        <v>14.075575000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.630000</v>
+        <v>981.63</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.398600</v>
+        <v>-91.398600000000002</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>50683.097761</v>
+        <v>50683.097760999997</v>
       </c>
       <c r="AU10" s="1">
         <v>14.078638</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.547000</v>
+        <v>991.54700000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.226000</v>
+        <v>-109.226</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>50694.225502</v>
+        <v>50694.225502000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.081729</v>
+        <v>14.081728999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.857000</v>
+        <v>999.85699999999997</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.964000</v>
+        <v>-124.964</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>50705.302128</v>
+        <v>50705.302128000003</v>
       </c>
       <c r="BE10" s="1">
         <v>14.084806</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.810000</v>
+        <v>1038.81</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.206000</v>
+        <v>-197.20599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>50716.428386</v>
@@ -2717,13 +3133,13 @@
         <v>14.087897</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.127000</v>
+        <v>-314.12700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>50727.616145</v>
@@ -2732,318 +3148,318 @@
         <v>14.091004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-498.198000</v>
+        <v>-498.19799999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>50738.095652</v>
+        <v>50738.095652000004</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.093915</v>
+        <v>14.093915000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.610000</v>
+        <v>1336.61</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.824000</v>
+        <v>-699.82399999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>50748.892707</v>
+        <v>50748.892706999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.096915</v>
+        <v>14.096914999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.230000</v>
+        <v>1473.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-915.171000</v>
+        <v>-915.17100000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>50760.694343</v>
+        <v>50760.694343000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.100193</v>
+        <v>14.100193000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.620000</v>
+        <v>1831.62</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1425.070000</v>
+        <v>-1425.07</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>50589.450569</v>
+        <v>50589.450569000001</v>
       </c>
       <c r="B11" s="1">
-        <v>14.052625</v>
+        <v>14.052625000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>900.533000</v>
+        <v>900.53300000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.258000</v>
+        <v>-198.25800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>50599.868538</v>
+        <v>50599.868538000002</v>
       </c>
       <c r="G11" s="1">
         <v>14.055519</v>
       </c>
       <c r="H11" s="1">
-        <v>917.994000</v>
+        <v>917.99400000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.102000</v>
+        <v>-168.102</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>50610.043964</v>
+        <v>50610.043963999997</v>
       </c>
       <c r="L11" s="1">
         <v>14.058346</v>
       </c>
       <c r="M11" s="1">
-        <v>941.186000</v>
+        <v>941.18600000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.333000</v>
+        <v>-119.333</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>50620.562159</v>
+        <v>50620.562159000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.061267</v>
+        <v>14.061267000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>947.945000</v>
+        <v>947.94500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>50630.598179</v>
+        <v>50630.598179000001</v>
       </c>
       <c r="V11" s="1">
         <v>14.064055</v>
       </c>
       <c r="W11" s="1">
-        <v>954.561000</v>
+        <v>954.56100000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.327300</v>
+        <v>-88.327299999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>50640.643652</v>
+        <v>50640.643651999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.066845</v>
+        <v>14.066845000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.627000</v>
+        <v>961.62699999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.902200</v>
+        <v>-76.902199999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>50651.184803</v>
+        <v>50651.184802999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.069774</v>
+        <v>14.069774000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.350000</v>
+        <v>966.35</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.795500</v>
+        <v>-74.795500000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>50661.676505</v>
+        <v>50661.676505000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.072688</v>
+        <v>14.072687999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.539000</v>
+        <v>973.53899999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.660400</v>
+        <v>-79.660399999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>50672.433780</v>
+        <v>50672.433779999999</v>
       </c>
       <c r="AP11" s="1">
         <v>14.075676</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.630000</v>
+        <v>981.63</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.385600</v>
+        <v>-91.385599999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>50683.518369</v>
+        <v>50683.518368999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.078755</v>
+        <v>14.078754999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.517000</v>
+        <v>991.51700000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.216000</v>
+        <v>-109.21599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>50694.638637</v>
+        <v>50694.638636999996</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.081844</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.850000</v>
+        <v>999.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.962000</v>
+        <v>-124.962</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>50705.601710</v>
+        <v>50705.601710000003</v>
       </c>
       <c r="BE11" s="1">
         <v>14.084889</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.219000</v>
+        <v>-197.21899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>50716.805840</v>
+        <v>50716.805840000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.088002</v>
+        <v>14.088001999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>50728.033316</v>
+        <v>50728.033316000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>14.091120</v>
+        <v>14.09112</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-498.192000</v>
+        <v>-498.19200000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>50738.505823</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.094029</v>
+        <v>14.094029000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.914000</v>
+        <v>-699.91399999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>50749.460949</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.097072</v>
+        <v>14.097072000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.200000</v>
+        <v>1473.2</v>
       </c>
       <c r="CA11" s="1">
-        <v>-915.115000</v>
+        <v>-915.11500000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>50761.235018</v>
+        <v>50761.235017999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.100343</v>
+        <v>14.100343000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.360000</v>
+        <v>1830.36</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1425.680000</v>
+        <v>-1425.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>50589.788343</v>
       </c>
@@ -3051,118 +3467,118 @@
         <v>14.052719</v>
       </c>
       <c r="C12" s="1">
-        <v>900.561000</v>
+        <v>900.56100000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.372000</v>
+        <v>-198.37200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>50600.522761</v>
       </c>
       <c r="G12" s="1">
-        <v>14.055701</v>
+        <v>14.055700999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>918.070000</v>
+        <v>918.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.320000</v>
+        <v>-168.32</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>50610.687784</v>
+        <v>50610.687784000002</v>
       </c>
       <c r="L12" s="1">
         <v>14.058524</v>
       </c>
       <c r="M12" s="1">
-        <v>941.261000</v>
+        <v>941.26099999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.404000</v>
+        <v>-119.404</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>50620.951982</v>
+        <v>50620.951981999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.061376</v>
+        <v>14.061375999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.954000</v>
+        <v>947.95399999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>50630.825842</v>
+        <v>50630.825841999998</v>
       </c>
       <c r="V12" s="1">
-        <v>14.064118</v>
+        <v>14.064118000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.581000</v>
+        <v>954.58100000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.412400</v>
+        <v>-88.412400000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>50640.990355</v>
+        <v>50640.990355000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.066942</v>
+        <v>14.066941999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.664000</v>
+        <v>961.66399999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.862500</v>
+        <v>-76.862499999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>50651.524391</v>
+        <v>50651.524390999999</v>
       </c>
       <c r="AF12" s="1">
         <v>14.069868</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.350000</v>
+        <v>966.35</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.803600</v>
+        <v>-74.803600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>50662.024199</v>
+        <v>50662.024198999999</v>
       </c>
       <c r="AK12" s="1">
         <v>14.072784</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.526000</v>
+        <v>973.52599999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.647600</v>
+        <v>-79.647599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>50672.851402</v>
@@ -3171,1737 +3587,1737 @@
         <v>14.075792</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.621000</v>
+        <v>981.62099999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.405200</v>
+        <v>-91.405199999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>50683.828828</v>
+        <v>50683.828827999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.078841</v>
+        <v>14.078841000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.542000</v>
+        <v>991.54200000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.230000</v>
+        <v>-109.23</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>50694.942220</v>
+        <v>50694.942219999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.081928</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.858000</v>
+        <v>999.85799999999995</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>50705.962303</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.084990</v>
+        <v>14.084989999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.200000</v>
+        <v>-197.2</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>50717.179855</v>
+        <v>50717.179855000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>14.088106</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.126000</v>
+        <v>-314.12599999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>50728.430576</v>
+        <v>50728.430575999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.091231</v>
+        <v>14.091231000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-498.216000</v>
+        <v>-498.21600000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>50738.938850</v>
+        <v>50738.938849999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.094150</v>
+        <v>14.094150000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-700.040000</v>
+        <v>-700.04</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>50749.768963</v>
+        <v>50749.768963000002</v>
       </c>
       <c r="BY12" s="1">
         <v>14.097158</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-915.236000</v>
+        <v>-915.23599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>50761.774938</v>
+        <v>50761.774938000002</v>
       </c>
       <c r="CD12" s="1">
         <v>14.100493</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.680000</v>
+        <v>1831.68</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1426.240000</v>
+        <v>-1426.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>50590.442070</v>
+        <v>50590.442069999997</v>
       </c>
       <c r="B13" s="1">
         <v>14.052901</v>
       </c>
       <c r="C13" s="1">
-        <v>900.482000</v>
+        <v>900.48199999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.253000</v>
+        <v>-198.25299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>50600.904216</v>
+        <v>50600.904216000003</v>
       </c>
       <c r="G13" s="1">
         <v>14.055807</v>
       </c>
       <c r="H13" s="1">
-        <v>918.348000</v>
+        <v>918.34799999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.090000</v>
+        <v>-168.09</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>50611.083580</v>
+        <v>50611.083579999999</v>
       </c>
       <c r="L13" s="1">
         <v>14.058634</v>
       </c>
       <c r="M13" s="1">
-        <v>941.081000</v>
+        <v>941.08100000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.374000</v>
+        <v>-119.374</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50621.300671</v>
+        <v>50621.300670999997</v>
       </c>
       <c r="Q13" s="1">
         <v>14.061472</v>
       </c>
       <c r="R13" s="1">
-        <v>947.973000</v>
+        <v>947.97299999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.310000</v>
+        <v>-103.31</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>50631.170560</v>
+        <v>50631.170559999999</v>
       </c>
       <c r="V13" s="1">
         <v>14.064214</v>
       </c>
       <c r="W13" s="1">
-        <v>954.608000</v>
+        <v>954.60799999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.388500</v>
+        <v>-88.388499999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>50641.342522</v>
+        <v>50641.342521999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>14.067040</v>
+        <v>14.06704</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.627000</v>
+        <v>961.62699999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.888900</v>
+        <v>-76.888900000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>50651.944501</v>
+        <v>50651.944500999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.069985</v>
+        <v>14.069985000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.296000</v>
+        <v>966.29600000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.797400</v>
+        <v>-74.797399999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>50662.443351</v>
+        <v>50662.443351000002</v>
       </c>
       <c r="AK13" s="1">
         <v>14.072901</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.534000</v>
+        <v>973.53399999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.669100</v>
+        <v>-79.6691</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>50673.154425</v>
+        <v>50673.154425000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.075876</v>
+        <v>14.075875999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.625000</v>
+        <v>981.625</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.395400</v>
+        <v>-91.395399999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>50684.190412</v>
+        <v>50684.190412000004</v>
       </c>
       <c r="AU13" s="1">
         <v>14.078942</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.533000</v>
+        <v>991.53300000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.229000</v>
+        <v>-109.229</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>50695.302284</v>
+        <v>50695.302283999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.082028</v>
+        <v>14.082027999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.824000</v>
+        <v>999.82399999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.976000</v>
+        <v>-124.976</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>50706.320909</v>
+        <v>50706.320909000002</v>
       </c>
       <c r="BE13" s="1">
         <v>14.085089</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.800000</v>
+        <v>1038.8</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.198000</v>
+        <v>-197.19800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>50717.928782</v>
+        <v>50717.928782000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.088314</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.098000</v>
+        <v>-314.09800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>50728.852177</v>
+        <v>50728.852177000001</v>
       </c>
       <c r="BO13" s="1">
         <v>14.091348</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-498.173000</v>
+        <v>-498.173</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>50739.366898</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.094269</v>
+        <v>14.094269000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV13" s="1">
-        <v>-700.142000</v>
+        <v>-700.14200000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>50750.192547</v>
+        <v>50750.192546999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.097276</v>
+        <v>14.097276000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.280000</v>
+        <v>1473.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-915.288000</v>
+        <v>-915.28800000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>50762.317252</v>
+        <v>50762.317252000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.100644</v>
+        <v>14.100644000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.610000</v>
+        <v>1830.61</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1424.870000</v>
+        <v>-1424.87</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>50590.816550</v>
+        <v>50590.816550000003</v>
       </c>
       <c r="B14" s="1">
-        <v>14.053005</v>
+        <v>14.053005000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>900.527000</v>
+        <v>900.52700000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.309000</v>
+        <v>-198.309</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>50601.248940</v>
+        <v>50601.248939999998</v>
       </c>
       <c r="G14" s="1">
         <v>14.055902</v>
       </c>
       <c r="H14" s="1">
-        <v>918.114000</v>
+        <v>918.11400000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.487000</v>
+        <v>-167.48699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>50611.427308</v>
+        <v>50611.427307999998</v>
       </c>
       <c r="L14" s="1">
-        <v>14.058730</v>
+        <v>14.058730000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.055000</v>
+        <v>941.05499999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.493000</v>
+        <v>-119.49299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>50621.636974</v>
+        <v>50621.636974000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.061566</v>
+        <v>14.061565999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.996000</v>
+        <v>947.99599999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>50631.595632</v>
+        <v>50631.595631999997</v>
       </c>
       <c r="V14" s="1">
         <v>14.064332</v>
       </c>
       <c r="W14" s="1">
-        <v>954.507000</v>
+        <v>954.50699999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.371100</v>
+        <v>-88.371099999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>50641.769076</v>
+        <v>50641.769075999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.067158</v>
+        <v>14.067157999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.593000</v>
+        <v>961.59299999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.778100</v>
+        <v>-76.778099999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>50652.211876</v>
+        <v>50652.211876000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.070059</v>
+        <v>14.070059000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.331000</v>
+        <v>966.33100000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.787700</v>
+        <v>-74.787700000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>50662.732983</v>
+        <v>50662.732983000002</v>
       </c>
       <c r="AK14" s="1">
         <v>14.072981</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.518000</v>
+        <v>973.51800000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.677200</v>
+        <v>-79.677199999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>50673.514026</v>
+        <v>50673.514025999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.075976</v>
+        <v>14.075976000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.641000</v>
+        <v>981.64099999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.388800</v>
+        <v>-91.388800000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>50684.555498</v>
+        <v>50684.555498000002</v>
       </c>
       <c r="AU14" s="1">
         <v>14.079043</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.540000</v>
+        <v>991.54</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.222000</v>
+        <v>-109.22199999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>50695.658411</v>
+        <v>50695.658410999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.082127</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.844000</v>
+        <v>999.84400000000005</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.955000</v>
+        <v>-124.955</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>50707.046603</v>
+        <v>50707.046603000003</v>
       </c>
       <c r="BE14" s="1">
         <v>14.085291</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.206000</v>
+        <v>-197.20599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>50718.303786</v>
+        <v>50718.303785999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.088418</v>
+        <v>14.088418000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.139000</v>
+        <v>-314.13900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>50729.250463</v>
+        <v>50729.250462999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.091458</v>
+        <v>14.091457999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-498.223000</v>
+        <v>-498.22300000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>50739.779538</v>
+        <v>50739.779538000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.094383</v>
+        <v>14.094383000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV14" s="1">
-        <v>-700.246000</v>
+        <v>-700.24599999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>50750.922163</v>
+        <v>50750.922163000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.097478</v>
+        <v>14.097478000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.110000</v>
+        <v>1473.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-915.134000</v>
+        <v>-915.13400000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>50763.160946</v>
+        <v>50763.160946000004</v>
       </c>
       <c r="CD14" s="1">
         <v>14.100878</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.950000</v>
+        <v>1831.95</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1425.470000</v>
+        <v>-1425.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>50591.157799</v>
+        <v>50591.157799000001</v>
       </c>
       <c r="B15" s="1">
         <v>14.053099</v>
       </c>
       <c r="C15" s="1">
-        <v>900.636000</v>
+        <v>900.63599999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.364000</v>
+        <v>-198.364</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>50601.594121</v>
+        <v>50601.594121000002</v>
       </c>
       <c r="G15" s="1">
-        <v>14.055998</v>
+        <v>14.055998000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.991000</v>
+        <v>917.99099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.852000</v>
+        <v>-167.852</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>50611.771725</v>
+        <v>50611.771724999999</v>
       </c>
       <c r="L15" s="1">
-        <v>14.058825</v>
+        <v>14.058825000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.146000</v>
+        <v>941.14599999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.555000</v>
+        <v>-119.55500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>50622.062029</v>
+        <v>50622.062029000001</v>
       </c>
       <c r="Q15" s="1">
         <v>14.061684</v>
       </c>
       <c r="R15" s="1">
-        <v>947.985000</v>
+        <v>947.98500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.305000</v>
+        <v>-103.30500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>50631.867441</v>
+        <v>50631.867441000002</v>
       </c>
       <c r="V15" s="1">
         <v>14.064408</v>
       </c>
       <c r="W15" s="1">
-        <v>954.527000</v>
+        <v>954.52700000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.475600</v>
+        <v>-88.4756</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>50642.047362</v>
+        <v>50642.047361999998</v>
       </c>
       <c r="AA15" s="1">
         <v>14.067235</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.635000</v>
+        <v>961.63499999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.916900</v>
+        <v>-76.916899999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>50652.557588</v>
+        <v>50652.557588000003</v>
       </c>
       <c r="AF15" s="1">
         <v>14.070155</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.373000</v>
+        <v>966.37300000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.794700</v>
+        <v>-74.794700000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>50663.083159</v>
+        <v>50663.083159000002</v>
       </c>
       <c r="AK15" s="1">
         <v>14.073079</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.532000</v>
+        <v>973.53200000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.671700</v>
+        <v>-79.671700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>50673.875113</v>
+        <v>50673.875113000002</v>
       </c>
       <c r="AP15" s="1">
         <v>14.076076</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.620000</v>
+        <v>981.62</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.383900</v>
+        <v>-91.383899999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>50685.285080</v>
+        <v>50685.285080000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.079246</v>
+        <v>14.079245999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.530000</v>
+        <v>991.53</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.242000</v>
+        <v>-109.242</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>50696.381580</v>
+        <v>50696.381580000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.082328</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.852000</v>
+        <v>999.85199999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.965000</v>
+        <v>-124.965</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>50707.436411</v>
+        <v>50707.436411000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.085399</v>
+        <v>14.085399000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.180000</v>
+        <v>-197.18</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>50718.681709</v>
+        <v>50718.681708999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.088523</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.140000</v>
+        <v>-314.14</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>50729.670108</v>
+        <v>50729.670107999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.091575</v>
+        <v>14.091575000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-498.218000</v>
+        <v>-498.21800000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>50740.522582</v>
+        <v>50740.522581999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.094590</v>
+        <v>14.09459</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV15" s="1">
-        <v>-700.383000</v>
+        <v>-700.38300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>50751.093283</v>
+        <v>50751.093283000002</v>
       </c>
       <c r="BY15" s="1">
         <v>14.097526</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.190000</v>
+        <v>1473.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-915.124000</v>
+        <v>-915.12400000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>50763.394598</v>
+        <v>50763.394597999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.100943</v>
+        <v>14.100942999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1831.950000</v>
+        <v>1831.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1425.750000</v>
+        <v>-1425.75</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>50591.498054</v>
+        <v>50591.498054000003</v>
       </c>
       <c r="B16" s="1">
         <v>14.053194</v>
       </c>
       <c r="C16" s="1">
-        <v>900.557000</v>
+        <v>900.55700000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.247000</v>
+        <v>-198.24700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>50602.012743</v>
+        <v>50602.012742999999</v>
       </c>
       <c r="G16" s="1">
         <v>14.056115</v>
       </c>
       <c r="H16" s="1">
-        <v>918.074000</v>
+        <v>918.07399999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.171000</v>
+        <v>-168.17099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>50612.180729</v>
       </c>
       <c r="L16" s="1">
-        <v>14.058939</v>
+        <v>14.058939000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.184000</v>
+        <v>941.18399999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.580000</v>
+        <v>-119.58</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>50622.346268</v>
+        <v>50622.346268000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.061763</v>
+        <v>14.061762999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.977000</v>
+        <v>947.97699999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.319000</v>
+        <v>-103.319</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>50632.209715</v>
+        <v>50632.209714999997</v>
       </c>
       <c r="V16" s="1">
         <v>14.064503</v>
       </c>
       <c r="W16" s="1">
-        <v>954.635000</v>
+        <v>954.63499999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.405800</v>
+        <v>-88.405799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>50642.395522</v>
+        <v>50642.395521999999</v>
       </c>
       <c r="AA16" s="1">
         <v>14.067332</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.685000</v>
+        <v>961.68499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.905300</v>
+        <v>-76.905299999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>50652.901543</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.070250</v>
+        <v>14.07025</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.289000</v>
+        <v>966.28899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.784300</v>
+        <v>-74.784300000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>50663.430855</v>
+        <v>50663.430854999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>14.073175</v>
+        <v>14.073175000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.528000</v>
+        <v>973.52800000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.667600</v>
+        <v>-79.667599999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>50674.597287</v>
+        <v>50674.597286999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.076277</v>
+        <v>14.076276999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.609000</v>
+        <v>981.60900000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.396400</v>
+        <v>-91.3964</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>50685.673945</v>
+        <v>50685.673945000002</v>
       </c>
       <c r="AU16" s="1">
         <v>14.079354</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.534000</v>
+        <v>991.53399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.221000</v>
+        <v>-109.221</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>50696.758043</v>
+        <v>50696.758043000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.082433</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.860000</v>
+        <v>999.86</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.967000</v>
+        <v>-124.967</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>50707.797037</v>
+        <v>50707.797036999997</v>
       </c>
       <c r="BE16" s="1">
         <v>14.085499</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.800000</v>
+        <v>1038.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.195000</v>
+        <v>-197.19499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>50719.372636</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.088715</v>
+        <v>14.088715000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.124000</v>
+        <v>-314.12400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>50730.392253</v>
+        <v>50730.392252999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.091776</v>
+        <v>14.091775999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-498.213000</v>
+        <v>-498.21300000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>50740.633681</v>
+        <v>50740.633680999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>14.094620</v>
+        <v>14.094620000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.590000</v>
+        <v>1336.59</v>
       </c>
       <c r="BV16" s="1">
-        <v>-700.431000</v>
+        <v>-700.43100000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>50751.518864</v>
+        <v>50751.518863999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>14.097644</v>
+        <v>14.097644000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-915.236000</v>
+        <v>-915.23599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>50763.911889</v>
+        <v>50763.911889000003</v>
       </c>
       <c r="CD16" s="1">
         <v>14.101087</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.750000</v>
+        <v>1830.75</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1424.820000</v>
+        <v>-1424.82</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>50591.915223</v>
+        <v>50591.915223000004</v>
       </c>
       <c r="B17" s="1">
-        <v>14.053310</v>
+        <v>14.05331</v>
       </c>
       <c r="C17" s="1">
-        <v>900.606000</v>
+        <v>900.60599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.202000</v>
+        <v>-198.202</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>50602.308855</v>
+        <v>50602.308855000003</v>
       </c>
       <c r="G17" s="1">
-        <v>14.056197</v>
+        <v>14.056196999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>918.017000</v>
+        <v>918.01700000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.786000</v>
+        <v>-167.786</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>50612.467417</v>
       </c>
       <c r="L17" s="1">
-        <v>14.059019</v>
+        <v>14.059018999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.222000</v>
+        <v>941.22199999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.398000</v>
+        <v>-119.398</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>50622.694925</v>
+        <v>50622.694925000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.061860</v>
+        <v>14.061859999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>947.937000</v>
+        <v>947.93700000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.344000</v>
+        <v>-103.34399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>50632.554895</v>
+        <v>50632.554895000001</v>
       </c>
       <c r="V17" s="1">
-        <v>14.064599</v>
+        <v>14.064598999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.566000</v>
+        <v>954.56600000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.366500</v>
+        <v>-88.366500000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>50642.745239</v>
+        <v>50642.745239000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.067429</v>
+        <v>14.067429000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.643000</v>
+        <v>961.64300000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.885500</v>
+        <v>-76.885499999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>50653.585801</v>
+        <v>50653.585801000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.070441</v>
+        <v>14.070441000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.268000</v>
+        <v>966.26800000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.819200</v>
+        <v>-74.819199999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>50664.128265</v>
+        <v>50664.128264999999</v>
       </c>
       <c r="AK17" s="1">
         <v>14.073369</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.525000</v>
+        <v>973.52499999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.664700</v>
+        <v>-79.664699999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>50674.956423</v>
+        <v>50674.956423000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.076377</v>
+        <v>14.076377000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.613000</v>
+        <v>981.61300000000006</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.378300</v>
+        <v>-91.378299999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>50686.043464</v>
+        <v>50686.043464000002</v>
       </c>
       <c r="AU17" s="1">
         <v>14.079457</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.518000</v>
+        <v>991.51800000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.244000</v>
+        <v>-109.244</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>50697.143966</v>
+        <v>50697.143966000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.082540</v>
+        <v>14.08254</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.854000</v>
+        <v>999.85400000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.963000</v>
+        <v>-124.96299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>50708.472070</v>
+        <v>50708.472070000003</v>
       </c>
       <c r="BE17" s="1">
         <v>14.085687</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.780000</v>
+        <v>1038.78</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.211000</v>
+        <v>-197.21100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>50719.808652</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.088836</v>
+        <v>14.088836000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.117000</v>
+        <v>-314.11700000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>50730.507325</v>
+        <v>50730.507324999999</v>
       </c>
       <c r="BO17" s="1">
         <v>14.091808</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-498.236000</v>
+        <v>-498.23599999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>50741.078595</v>
+        <v>50741.078594999999</v>
       </c>
       <c r="BT17" s="1">
         <v>14.094744</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.770000</v>
+        <v>1336.77</v>
       </c>
       <c r="BV17" s="1">
-        <v>-700.498000</v>
+        <v>-700.49800000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>50751.965745</v>
+        <v>50751.965745000001</v>
       </c>
       <c r="BY17" s="1">
         <v>14.097768</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.240000</v>
+        <v>1473.24</v>
       </c>
       <c r="CA17" s="1">
-        <v>-915.236000</v>
+        <v>-915.23599999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>50764.429249</v>
+        <v>50764.429249000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.101230</v>
+        <v>14.101229999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.070000</v>
+        <v>1831.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1424.800000</v>
+        <v>-1424.8</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>50592.192981</v>
       </c>
       <c r="B18" s="1">
-        <v>14.053387</v>
+        <v>14.053387000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>900.479000</v>
+        <v>900.47900000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.289000</v>
+        <v>-198.28899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>50602.655064</v>
+        <v>50602.655063999999</v>
       </c>
       <c r="G18" s="1">
         <v>14.056293</v>
       </c>
       <c r="H18" s="1">
-        <v>918.068000</v>
+        <v>918.06799999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.194000</v>
+        <v>-168.19399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>50612.813626</v>
+        <v>50612.813626000003</v>
       </c>
       <c r="L18" s="1">
         <v>14.059115</v>
       </c>
       <c r="M18" s="1">
-        <v>941.091000</v>
+        <v>941.09100000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.485000</v>
+        <v>-119.485</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>50623.042651</v>
+        <v>50623.042651000003</v>
       </c>
       <c r="Q18" s="1">
         <v>14.061956</v>
       </c>
       <c r="R18" s="1">
-        <v>947.964000</v>
+        <v>947.96400000000006</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.315000</v>
+        <v>-103.315</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>50633.242350</v>
+        <v>50633.24235</v>
       </c>
       <c r="V18" s="1">
-        <v>14.064790</v>
+        <v>14.06479</v>
       </c>
       <c r="W18" s="1">
-        <v>954.518000</v>
+        <v>954.51800000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.291300</v>
+        <v>-88.291300000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>50643.440592</v>
+        <v>50643.440591999999</v>
       </c>
       <c r="AA18" s="1">
         <v>14.067622</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.645000</v>
+        <v>961.64499999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.890700</v>
+        <v>-76.890699999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>50653.930979</v>
+        <v>50653.930978999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.070536</v>
+        <v>14.070536000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.341000</v>
+        <v>966.34100000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.728600</v>
+        <v>-74.7286</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>50664.476462</v>
+        <v>50664.476461999999</v>
       </c>
       <c r="AK18" s="1">
         <v>14.073466</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.537000</v>
+        <v>973.53700000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.656500</v>
+        <v>-79.656499999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>50675.316170</v>
+        <v>50675.316169999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.076477</v>
+        <v>14.076477000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.607000</v>
+        <v>981.60699999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.403600</v>
+        <v>-91.403599999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>50686.709095</v>
+        <v>50686.709094999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.079641</v>
+        <v>14.079641000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.549000</v>
+        <v>991.54899999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.243000</v>
+        <v>-109.24299999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>50697.844776</v>
+        <v>50697.844775999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.082735</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.844000</v>
+        <v>999.84400000000005</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.958000</v>
+        <v>-124.958</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>50708.907050</v>
+        <v>50708.907050000002</v>
       </c>
       <c r="BE18" s="1">
         <v>14.085808</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.770000</v>
+        <v>1038.77</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.195000</v>
+        <v>-197.19499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>50720.184587</v>
+        <v>50720.184587000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>14.088940</v>
+        <v>14.088939999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.149000</v>
+        <v>-314.149</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>50730.914540</v>
+        <v>50730.914539999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.091921</v>
+        <v>14.091920999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-498.253000</v>
+        <v>-498.25299999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>50741.489774</v>
+        <v>50741.489774000001</v>
       </c>
       <c r="BT18" s="1">
         <v>14.094858</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="BV18" s="1">
-        <v>-700.394000</v>
+        <v>-700.39400000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>50752.397265</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.097888</v>
+        <v>14.097887999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.260000</v>
+        <v>1473.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-915.077000</v>
+        <v>-915.077</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>50764.993167</v>
+        <v>50764.993167000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.101387</v>
+        <v>14.101387000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.610000</v>
+        <v>1831.61</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1425.490000</v>
+        <v>-1425.49</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>50592.535685</v>
+        <v>50592.535685000003</v>
       </c>
       <c r="B19" s="1">
-        <v>14.053482</v>
+        <v>14.053482000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>900.519000</v>
+        <v>900.51900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.348000</v>
+        <v>-198.34800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>50602.996310</v>
+        <v>50602.996310000002</v>
       </c>
       <c r="G19" s="1">
         <v>14.056388</v>
       </c>
       <c r="H19" s="1">
-        <v>918.332000</v>
+        <v>918.33199999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.248000</v>
+        <v>-168.24799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>50613.157848</v>
+        <v>50613.157848000003</v>
       </c>
       <c r="L19" s="1">
-        <v>14.059211</v>
+        <v>14.059210999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>941.205000</v>
+        <v>941.20500000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.359000</v>
+        <v>-119.35899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>50623.740986</v>
+        <v>50623.740985999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.062150</v>
+        <v>14.062150000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.962000</v>
+        <v>947.96199999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.279000</v>
+        <v>-103.279</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>50633.585582</v>
@@ -4910,240 +5326,240 @@
         <v>14.064885</v>
       </c>
       <c r="W19" s="1">
-        <v>954.630000</v>
+        <v>954.63</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.368000</v>
+        <v>-88.367999999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>50643.790272</v>
+        <v>50643.790271999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.067720</v>
+        <v>14.06772</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.580000</v>
+        <v>961.58</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.926300</v>
+        <v>-76.926299999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>50654.274241</v>
+        <v>50654.274240999999</v>
       </c>
       <c r="AF19" s="1">
         <v>14.070632</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.351000</v>
+        <v>966.351</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.801500</v>
+        <v>-74.801500000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>50665.130643</v>
+        <v>50665.130642999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>14.073647</v>
+        <v>14.073646999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.513000</v>
+        <v>973.51300000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.656300</v>
+        <v>-79.656300000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>50675.982631</v>
+        <v>50675.982630999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.076662</v>
+        <v>14.076662000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.615000</v>
+        <v>981.61500000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.360800</v>
+        <v>-91.360799999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>50687.169384</v>
+        <v>50687.169384000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.079769</v>
+        <v>14.079769000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.530000</v>
+        <v>991.53</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>50698.222728</v>
+        <v>50698.222728000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.082840</v>
+        <v>14.082839999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.844000</v>
+        <v>999.84400000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.959000</v>
+        <v>-124.959</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>50709.269658</v>
+        <v>50709.269657999997</v>
       </c>
       <c r="BE19" s="1">
         <v>14.085908</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.770000</v>
+        <v>1038.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.192000</v>
+        <v>-197.19200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>50720.561050</v>
+        <v>50720.561049999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.089045</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.118000</v>
+        <v>-314.11799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>50731.311838</v>
+        <v>50731.311838000001</v>
       </c>
       <c r="BO19" s="1">
         <v>14.092031</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-498.245000</v>
+        <v>-498.245</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>50741.919278</v>
+        <v>50741.919278000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.094978</v>
+        <v>14.094977999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="BV19" s="1">
-        <v>-700.329000</v>
+        <v>-700.32899999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>50752.817873</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.098005</v>
+        <v>14.098005000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.220000</v>
+        <v>1473.22</v>
       </c>
       <c r="CA19" s="1">
-        <v>-915.156000</v>
+        <v>-915.15599999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>50765.515009</v>
+        <v>50765.515009000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.101532</v>
+        <v>14.101532000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1425.270000</v>
+        <v>-1425.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>50592.876966</v>
+        <v>50592.876966000003</v>
       </c>
       <c r="B20" s="1">
-        <v>14.053577</v>
+        <v>14.053577000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>900.687000</v>
+        <v>900.68700000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.315000</v>
+        <v>-198.315</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>50603.688242</v>
+        <v>50603.688241999997</v>
       </c>
       <c r="G20" s="1">
-        <v>14.056580</v>
+        <v>14.05658</v>
       </c>
       <c r="H20" s="1">
-        <v>918.237000</v>
+        <v>918.23699999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.930000</v>
+        <v>-167.93</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>50613.845832</v>
+        <v>50613.845831999999</v>
       </c>
       <c r="L20" s="1">
         <v>14.059402</v>
       </c>
       <c r="M20" s="1">
-        <v>941.202000</v>
+        <v>941.202</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.467000</v>
+        <v>-119.467</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>50624.087346</v>
@@ -5152,360 +5568,360 @@
         <v>14.062246</v>
       </c>
       <c r="R20" s="1">
-        <v>947.963000</v>
+        <v>947.96299999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.285000</v>
+        <v>-103.285</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>50633.929839</v>
+        <v>50633.929838999997</v>
       </c>
       <c r="V20" s="1">
         <v>14.064981</v>
       </c>
       <c r="W20" s="1">
-        <v>954.493000</v>
+        <v>954.49300000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.355800</v>
+        <v>-88.355800000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>50644.137969</v>
+        <v>50644.137969000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.067816</v>
+        <v>14.067816000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.703000</v>
+        <v>961.70299999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.879800</v>
+        <v>-76.879800000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>50654.918545</v>
       </c>
       <c r="AF20" s="1">
-        <v>14.070811</v>
+        <v>14.070811000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.356000</v>
+        <v>966.35599999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.719000</v>
+        <v>-74.718999999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>50665.522018</v>
+        <v>50665.522018000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>14.073756</v>
+        <v>14.073755999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.523000</v>
+        <v>973.52300000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.647700</v>
+        <v>-79.6477</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>50676.426570</v>
+        <v>50676.426570000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.076785</v>
+        <v>14.076784999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.626000</v>
+        <v>981.62599999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.381700</v>
+        <v>-91.381699999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>50687.531648</v>
+        <v>50687.531647999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.079870</v>
+        <v>14.07987</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.520000</v>
+        <v>991.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.222000</v>
+        <v>-109.22199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>50698.580565</v>
+        <v>50698.580564999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.082939</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.864000</v>
+        <v>999.86400000000003</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.945000</v>
+        <v>-124.94499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>50709.628269</v>
+        <v>50709.628269000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.086008</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.192000</v>
+        <v>-197.19200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>50720.981163</v>
+        <v>50720.981162999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.089161</v>
+        <v>14.089161000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.137000</v>
+        <v>-314.137</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>50731.846065</v>
+        <v>50731.846064999998</v>
       </c>
       <c r="BO20" s="1">
         <v>14.092179</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-498.249000</v>
+        <v>-498.24900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>50742.346366</v>
+        <v>50742.346365999998</v>
       </c>
       <c r="BT20" s="1">
         <v>14.095096</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV20" s="1">
-        <v>-700.191000</v>
+        <v>-700.19100000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>50753.239977</v>
+        <v>50753.239976999997</v>
       </c>
       <c r="BY20" s="1">
         <v>14.098122</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.230000</v>
+        <v>1473.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-915.093000</v>
+        <v>-915.09299999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>50766.032784</v>
+        <v>50766.032784000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.101676</v>
+        <v>14.101675999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.960000</v>
+        <v>1830.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1424.720000</v>
+        <v>-1424.72</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>50593.559426</v>
       </c>
       <c r="B21" s="1">
-        <v>14.053767</v>
+        <v>14.053767000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>900.675000</v>
+        <v>900.67499999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.182000</v>
+        <v>-198.18199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>50604.033445</v>
+        <v>50604.033445000001</v>
       </c>
       <c r="G21" s="1">
         <v>14.056676</v>
       </c>
       <c r="H21" s="1">
-        <v>918.101000</v>
+        <v>918.101</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.918000</v>
+        <v>-167.91800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>50614.195020</v>
+        <v>50614.195019999999</v>
       </c>
       <c r="L21" s="1">
-        <v>14.059499</v>
+        <v>14.059499000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.087000</v>
+        <v>941.08699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.487000</v>
+        <v>-119.48699999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>50624.438857</v>
+        <v>50624.438857000001</v>
       </c>
       <c r="Q21" s="1">
         <v>14.062344</v>
       </c>
       <c r="R21" s="1">
-        <v>947.960000</v>
+        <v>947.96</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.330000</v>
+        <v>-103.33</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>50634.584557</v>
+        <v>50634.584557000002</v>
       </c>
       <c r="V21" s="1">
-        <v>14.065162</v>
+        <v>14.065162000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.494000</v>
+        <v>954.49400000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.426400</v>
+        <v>-88.426400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>50644.787262</v>
+        <v>50644.787261999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.067996</v>
+        <v>14.067996000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.605000</v>
+        <v>961.60500000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.892400</v>
+        <v>-76.892399999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>50655.304896</v>
+        <v>50655.304896000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.070918</v>
+        <v>14.070918000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.194000</v>
+        <v>966.19399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.744500</v>
+        <v>-74.744500000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>50665.867699</v>
+        <v>50665.867699000002</v>
       </c>
       <c r="AK21" s="1">
         <v>14.073852</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.515000</v>
+        <v>973.51499999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.660400</v>
+        <v>-79.660399999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>50676.788116</v>
+        <v>50676.788116000003</v>
       </c>
       <c r="AP21" s="1">
         <v>14.076886</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.610000</v>
+        <v>981.61</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.380100</v>
+        <v>-91.380099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>50687.898005</v>
+        <v>50687.898005000003</v>
       </c>
       <c r="AU21" s="1">
         <v>14.079972</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.534000</v>
+        <v>991.53399999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>50699.005416</v>
@@ -5514,225 +5930,225 @@
         <v>14.083057</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.852000</v>
+        <v>999.85199999999998</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.955000</v>
+        <v>-124.955</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>50710.055290</v>
+        <v>50710.055289999997</v>
       </c>
       <c r="BE21" s="1">
         <v>14.086126</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.780000</v>
+        <v>1038.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.209000</v>
+        <v>-197.209</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>50721.331372</v>
+        <v>50721.331372000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.089259</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.136000</v>
+        <v>-314.13600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>50732.130235</v>
+        <v>50732.130234999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.092258</v>
+        <v>14.092257999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-498.250000</v>
+        <v>-498.25</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>50742.757517</v>
+        <v>50742.757516999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.095210</v>
+        <v>14.09521</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-700.095000</v>
+        <v>-700.09500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>50753.695790</v>
+        <v>50753.695789999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.098249</v>
+        <v>14.098248999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.110000</v>
+        <v>1473.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-915.111000</v>
+        <v>-915.11099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>50766.676590</v>
+        <v>50766.676590000003</v>
       </c>
       <c r="CD21" s="1">
         <v>14.101855</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.630000</v>
+        <v>1831.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1425.680000</v>
+        <v>-1425.68</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>50593.903651</v>
+        <v>50593.903651000001</v>
       </c>
       <c r="B22" s="1">
-        <v>14.053862</v>
+        <v>14.053862000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>900.640000</v>
+        <v>900.64</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.313000</v>
+        <v>-198.31299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>50604.381636</v>
+        <v>50604.381635999998</v>
       </c>
       <c r="G22" s="1">
         <v>14.056773</v>
       </c>
       <c r="H22" s="1">
-        <v>917.726000</v>
+        <v>917.726</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.445000</v>
+        <v>-168.44499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>50614.848710</v>
+        <v>50614.848709999998</v>
       </c>
       <c r="L22" s="1">
-        <v>14.059680</v>
+        <v>14.05968</v>
       </c>
       <c r="M22" s="1">
-        <v>941.221000</v>
+        <v>941.221</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.410000</v>
+        <v>-119.41</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>50625.096552</v>
+        <v>50625.096552000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.062527</v>
+        <v>14.062526999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>947.918000</v>
+        <v>947.91800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.321000</v>
+        <v>-103.321</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>50634.966971</v>
+        <v>50634.966971000002</v>
       </c>
       <c r="V22" s="1">
-        <v>14.065269</v>
+        <v>14.065269000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.509000</v>
+        <v>954.50900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.427400</v>
+        <v>-88.427400000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>50645.185369</v>
+        <v>50645.185368999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.068107</v>
+        <v>14.068106999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.621000</v>
+        <v>961.62099999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.892800</v>
+        <v>-76.892799999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>50655.648128</v>
+        <v>50655.648128000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.071013</v>
+        <v>14.071013000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.214000</v>
+        <v>966.21400000000006</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.760400</v>
+        <v>-74.760400000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>50666.222872</v>
+        <v>50666.222871999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.073951</v>
+        <v>14.073950999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.521000</v>
+        <v>973.52099999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.672600</v>
+        <v>-79.672600000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>50677.148707</v>
@@ -5741,28 +6157,28 @@
         <v>14.076986</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.629000</v>
+        <v>981.62900000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.402800</v>
+        <v>-91.402799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>50688.319642</v>
+        <v>50688.319642000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>14.080089</v>
+        <v>14.080088999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.528000</v>
+        <v>991.52800000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.246000</v>
+        <v>-109.246</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>50699.298056</v>
@@ -5771,180 +6187,180 @@
         <v>14.083138</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.843000</v>
+        <v>999.84299999999996</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.961000</v>
+        <v>-124.961</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>50710.351399</v>
+        <v>50710.351398999999</v>
       </c>
       <c r="BE22" s="1">
         <v>14.086209</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.780000</v>
+        <v>1038.78</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.219000</v>
+        <v>-197.21899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>50721.705352</v>
+        <v>50721.705351999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.089363</v>
+        <v>14.089363000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.155000</v>
+        <v>-314.15499999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>50732.550346</v>
+        <v>50732.550346000004</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.092375</v>
+        <v>14.092375000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-498.215000</v>
+        <v>-498.21499999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>50743.191516</v>
+        <v>50743.191515999999</v>
       </c>
       <c r="BT22" s="1">
         <v>14.095331</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.970000</v>
+        <v>1336.97</v>
       </c>
       <c r="BV22" s="1">
-        <v>-699.979000</v>
+        <v>-699.97900000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>50754.121854</v>
+        <v>50754.121853999997</v>
       </c>
       <c r="BY22" s="1">
         <v>14.098367</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.320000</v>
+        <v>1473.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-915.276000</v>
+        <v>-915.27599999999995</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>50767.115584</v>
+        <v>50767.115583999999</v>
       </c>
       <c r="CD22" s="1">
         <v>14.101977</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.320000</v>
+        <v>1830.32</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1424.910000</v>
+        <v>-1424.91</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>50594.241953</v>
+        <v>50594.241952999997</v>
       </c>
       <c r="B23" s="1">
-        <v>14.053956</v>
+        <v>14.053955999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>900.724000</v>
+        <v>900.72400000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.326000</v>
+        <v>-198.32599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>50605.042803</v>
+        <v>50605.042802999997</v>
       </c>
       <c r="G23" s="1">
         <v>14.056956</v>
       </c>
       <c r="H23" s="1">
-        <v>917.952000</v>
+        <v>917.952</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.849000</v>
+        <v>-167.84899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>50615.236086</v>
+        <v>50615.236085999997</v>
       </c>
       <c r="L23" s="1">
-        <v>14.059788</v>
+        <v>14.059787999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.122000</v>
+        <v>941.12199999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.396000</v>
+        <v>-119.396</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>50625.484952</v>
+        <v>50625.484951999999</v>
       </c>
       <c r="Q23" s="1">
         <v>14.062635</v>
       </c>
       <c r="R23" s="1">
-        <v>947.908000</v>
+        <v>947.90800000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.306000</v>
+        <v>-103.306</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>50635.315131</v>
+        <v>50635.315131000003</v>
       </c>
       <c r="V23" s="1">
         <v>14.065365</v>
       </c>
       <c r="W23" s="1">
-        <v>954.431000</v>
+        <v>954.43100000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.356700</v>
+        <v>-88.356700000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>50645.534711</v>
@@ -5953,13 +6369,13 @@
         <v>14.068204</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.668000</v>
+        <v>961.66800000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.928600</v>
+        <v>-76.928600000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>50655.990865</v>
@@ -5968,43 +6384,43 @@
         <v>14.071109</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.354000</v>
+        <v>966.35400000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.755000</v>
+        <v>-74.754999999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>50666.640962</v>
+        <v>50666.640961999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.074067</v>
+        <v>14.074066999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.515000</v>
+        <v>973.51499999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.644300</v>
+        <v>-79.644300000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>50677.565843</v>
+        <v>50677.565842999997</v>
       </c>
       <c r="AP23" s="1">
         <v>14.077102</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.611000</v>
+        <v>981.61099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.394800</v>
+        <v>-91.394800000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>50688.624679</v>
@@ -6013,43 +6429,43 @@
         <v>14.080174</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.506000</v>
+        <v>991.50599999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.254000</v>
+        <v>-109.254</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>50699.658646</v>
+        <v>50699.658646000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.083239</v>
+        <v>14.083239000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.834000</v>
+        <v>999.83399999999995</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.953000</v>
+        <v>-124.953</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>50710.712803</v>
+        <v>50710.712803000002</v>
       </c>
       <c r="BE23" s="1">
         <v>14.086309</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.200000</v>
+        <v>-197.2</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>50722.083304</v>
@@ -6058,225 +6474,225 @@
         <v>14.089468</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.124000</v>
+        <v>-314.12400000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>50732.965045</v>
+        <v>50732.965044999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.092490</v>
+        <v>14.09249</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-498.224000</v>
+        <v>-498.22399999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>50743.617581</v>
+        <v>50743.617580999999</v>
       </c>
       <c r="BT23" s="1">
         <v>14.095449</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.870000</v>
+        <v>1336.87</v>
       </c>
       <c r="BV23" s="1">
-        <v>-699.826000</v>
+        <v>-699.82600000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>50754.559854</v>
+        <v>50754.559853999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.098489</v>
+        <v>14.098489000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.300000</v>
+        <v>1473.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-915.208000</v>
+        <v>-915.20799999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>50767.632876</v>
+        <v>50767.632876000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.102120</v>
+        <v>14.102119999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.330000</v>
+        <v>1830.33</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1426.420000</v>
+        <v>-1426.42</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>50594.903089</v>
+        <v>50594.903088999999</v>
       </c>
       <c r="B24" s="1">
-        <v>14.054140</v>
+        <v>14.05414</v>
       </c>
       <c r="C24" s="1">
-        <v>900.538000</v>
+        <v>900.53800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.299000</v>
+        <v>-198.29900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>50605.413812</v>
+        <v>50605.413811999999</v>
       </c>
       <c r="G24" s="1">
-        <v>14.057059</v>
+        <v>14.057059000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>918.397000</v>
+        <v>918.39700000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.722000</v>
+        <v>-167.72200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>50615.580309</v>
+        <v>50615.580308999997</v>
       </c>
       <c r="L24" s="1">
-        <v>14.059883</v>
+        <v>14.059882999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.129000</v>
+        <v>941.12900000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.540000</v>
+        <v>-119.54</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>50625.833111</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.062731</v>
+        <v>14.062730999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.933000</v>
+        <v>947.93299999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.245000</v>
+        <v>-103.245</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>50635.659388</v>
       </c>
       <c r="V24" s="1">
-        <v>14.065461</v>
+        <v>14.065461000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>954.454000</v>
+        <v>954.45399999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.358300</v>
+        <v>-88.3583</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>50645.880910</v>
+        <v>50645.88091</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.068300</v>
+        <v>14.068300000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.642000</v>
+        <v>961.64200000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.860800</v>
+        <v>-76.860799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>50656.408000</v>
+        <v>50656.408000000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.071224</v>
+        <v>14.071224000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.321000</v>
+        <v>966.32100000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.814700</v>
+        <v>-74.814700000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>50666.913267</v>
+        <v>50666.913267000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.074143</v>
+        <v>14.074142999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.496000</v>
+        <v>973.49599999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.676900</v>
+        <v>-79.676900000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>50677.868898</v>
+        <v>50677.868898000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.077186</v>
+        <v>14.077185999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.606000</v>
+        <v>981.60599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.426500</v>
+        <v>-91.426500000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>50688.989204</v>
+        <v>50688.989203999998</v>
       </c>
       <c r="AU24" s="1">
         <v>14.080275</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.539000</v>
+        <v>991.53899999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.246000</v>
+        <v>-109.246</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>50700.019279</v>
@@ -6285,73 +6701,73 @@
         <v>14.083339</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.831000</v>
+        <v>999.83100000000002</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.982000</v>
+        <v>-124.982</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>50711.076089</v>
+        <v>50711.076089000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.086410</v>
+        <v>14.086410000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.780000</v>
+        <v>1038.78</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.207000</v>
+        <v>-197.20699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>50722.832263</v>
+        <v>50722.832262999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.089676</v>
+        <v>14.089676000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.177000</v>
+        <v>-314.17700000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>50733.366763</v>
+        <v>50733.366762999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.092602</v>
+        <v>14.092601999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-498.223000</v>
+        <v>-498.22300000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>50744.032269</v>
+        <v>50744.032269000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.095565</v>
+        <v>14.095565000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.710000</v>
+        <v>1336.71</v>
       </c>
       <c r="BV24" s="1">
-        <v>-699.761000</v>
+        <v>-699.76099999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>50754.980957</v>
@@ -6360,544 +6776,545 @@
         <v>14.098606</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.230000</v>
+        <v>1473.23</v>
       </c>
       <c r="CA24" s="1">
-        <v>-915.239000</v>
+        <v>-915.23900000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>50768.458715</v>
+        <v>50768.458715000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.102350</v>
+        <v>14.102349999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.490000</v>
+        <v>1831.49</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1426.500000</v>
+        <v>-1426.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>50595.266694</v>
+        <v>50595.266693999998</v>
       </c>
       <c r="B25" s="1">
-        <v>14.054241</v>
+        <v>14.054240999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>900.675000</v>
+        <v>900.67499999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.379000</v>
+        <v>-198.37899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>50605.758563</v>
+        <v>50605.758563000003</v>
       </c>
       <c r="G25" s="1">
         <v>14.057155</v>
       </c>
       <c r="H25" s="1">
-        <v>918.284000</v>
+        <v>918.28399999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.013000</v>
+        <v>-168.01300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>50615.925061</v>
+        <v>50615.925061000002</v>
       </c>
       <c r="L25" s="1">
         <v>14.059979</v>
       </c>
       <c r="M25" s="1">
-        <v>941.251000</v>
+        <v>941.25099999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.387000</v>
+        <v>-119.387</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>50626.178359</v>
+        <v>50626.178358999998</v>
       </c>
       <c r="Q25" s="1">
         <v>14.062827</v>
       </c>
       <c r="R25" s="1">
-        <v>947.934000</v>
+        <v>947.93399999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.277000</v>
+        <v>-103.277</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>50636.075995</v>
+        <v>50636.075994999999</v>
       </c>
       <c r="V25" s="1">
-        <v>14.065577</v>
+        <v>14.065576999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.544000</v>
+        <v>954.54399999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.405800</v>
+        <v>-88.405799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>50646.296062</v>
+        <v>50646.296062000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.068416</v>
+        <v>14.068415999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.628000</v>
+        <v>961.62800000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.908700</v>
+        <v>-76.908699999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>50656.702622</v>
+        <v>50656.702621999997</v>
       </c>
       <c r="AF25" s="1">
         <v>14.071306</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.435000</v>
+        <v>966.43499999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.784600</v>
+        <v>-74.784599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>50667.265934</v>
+        <v>50667.265934000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.074241</v>
+        <v>14.074241000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.510000</v>
+        <v>973.51</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.642300</v>
+        <v>-79.642300000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>50678.230023</v>
+        <v>50678.230022999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.077286</v>
+        <v>14.077286000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.604000</v>
+        <v>981.60400000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.404500</v>
+        <v>-91.404499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>50689.354790</v>
+        <v>50689.354789999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.080376</v>
+        <v>14.080375999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.537000</v>
+        <v>991.53700000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.229000</v>
+        <v>-109.229</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>50700.739924</v>
+        <v>50700.739924000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.083539</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.834000</v>
+        <v>999.83399999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.981000</v>
+        <v>-124.98099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>50711.794758</v>
+        <v>50711.794758000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.086610</v>
+        <v>14.08661</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.790000</v>
+        <v>1038.79</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.196000</v>
+        <v>-197.196</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>50723.205719</v>
+        <v>50723.205718999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.089779</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.131000</v>
+        <v>-314.13099999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>50733.767530</v>
+        <v>50733.767529999997</v>
       </c>
       <c r="BO25" s="1">
         <v>14.092713</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-498.225000</v>
+        <v>-498.22500000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>50744.460284</v>
+        <v>50744.460284000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.095683</v>
+        <v>14.095682999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.570000</v>
+        <v>1336.57</v>
       </c>
       <c r="BV25" s="1">
-        <v>-699.749000</v>
+        <v>-699.74900000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>50755.708848</v>
+        <v>50755.708848000002</v>
       </c>
       <c r="BY25" s="1">
         <v>14.098808</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.080000</v>
+        <v>1473.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-915.222000</v>
+        <v>-915.22199999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>50768.696331</v>
+        <v>50768.696330999999</v>
       </c>
       <c r="CD25" s="1">
         <v>14.102416</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.530000</v>
+        <v>1830.53</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1425.160000</v>
+        <v>-1425.16</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>50595.612863</v>
+        <v>50595.612863000002</v>
       </c>
       <c r="B26" s="1">
         <v>14.054337</v>
       </c>
       <c r="C26" s="1">
-        <v>900.529000</v>
+        <v>900.529</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.293000</v>
+        <v>-198.29300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>50606.107715</v>
+        <v>50606.107714999998</v>
       </c>
       <c r="G26" s="1">
         <v>14.057252</v>
       </c>
       <c r="H26" s="1">
-        <v>918.022000</v>
+        <v>918.02200000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.079000</v>
+        <v>-168.07900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>50616.342660</v>
+        <v>50616.342660000002</v>
       </c>
       <c r="L26" s="1">
         <v>14.060095</v>
       </c>
       <c r="M26" s="1">
-        <v>941.172000</v>
+        <v>941.17200000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.482000</v>
+        <v>-119.482</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>50626.593015</v>
+        <v>50626.593014999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.062943</v>
+        <v>14.062943000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>947.960000</v>
+        <v>947.96</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.336000</v>
+        <v>-103.336</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>50636.356234</v>
+        <v>50636.356233999999</v>
       </c>
       <c r="V26" s="1">
         <v>14.065655</v>
       </c>
       <c r="W26" s="1">
-        <v>954.532000</v>
+        <v>954.53200000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.381200</v>
+        <v>-88.381200000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>50646.593164</v>
+        <v>50646.593163999998</v>
       </c>
       <c r="AA26" s="1">
         <v>14.068498</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.671000</v>
+        <v>961.67100000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.875300</v>
+        <v>-76.875299999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>50657.047838</v>
+        <v>50657.047837999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.071402</v>
+        <v>14.071402000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.347000</v>
+        <v>966.34699999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.767900</v>
+        <v>-74.767899999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>50667.613648</v>
+        <v>50667.613647999999</v>
       </c>
       <c r="AK26" s="1">
         <v>14.074337</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.506000</v>
+        <v>973.50599999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.650200</v>
+        <v>-79.650199999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>50678.587105</v>
+        <v>50678.587104999999</v>
       </c>
       <c r="AP26" s="1">
         <v>14.077385</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.639000</v>
+        <v>981.63900000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.395900</v>
+        <v>-91.395899999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>50690.084906</v>
+        <v>50690.084905999996</v>
       </c>
       <c r="AU26" s="1">
         <v>14.080579</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.539000</v>
+        <v>991.53899999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>50701.116388</v>
+        <v>50701.116388000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.083643</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.843000</v>
+        <v>999.84299999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.973000</v>
+        <v>-124.973</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>50712.156837</v>
+        <v>50712.156837000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.086710</v>
+        <v>14.08671</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.770000</v>
+        <v>1038.77</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.205000</v>
+        <v>-197.20500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>50723.581226</v>
+        <v>50723.581226000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.089884</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.830000</v>
+        <v>1105.83</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.123000</v>
+        <v>-314.12299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>50734.492712</v>
+        <v>50734.492711999999</v>
       </c>
       <c r="BO26" s="1">
         <v>14.092915</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-498.225000</v>
+        <v>-498.22500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>50745.199818</v>
+        <v>50745.199818000001</v>
       </c>
       <c r="BT26" s="1">
         <v>14.095889</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV26" s="1">
-        <v>-699.879000</v>
+        <v>-699.87900000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>50755.883645</v>
+        <v>50755.883645000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.098857</v>
+        <v>14.098857000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.230000</v>
+        <v>1473.23</v>
       </c>
       <c r="CA26" s="1">
-        <v>-915.095000</v>
+        <v>-915.09500000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>50769.235486</v>
+        <v>50769.235485999998</v>
       </c>
       <c r="CD26" s="1">
         <v>14.102565</v>
       </c>
       <c r="CE26" s="1">
-        <v>1831.120000</v>
+        <v>1831.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1426.500000</v>
+        <v>-1426.5</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>